--- a/data/trans_dic/P55_7-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P55_7-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse disponer de teléfono</t>
+          <t>Población que no puede permitirse disponer de teléfono (tasa de respuesta: 99,51%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>99,2%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>97,43%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>98,09%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>99,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>99,22%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>97,84%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>99,29%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>97,38%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>99,3%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>99,21%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>97,64%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>97,73%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>98,99; 99,9</t>
+          <t>98,88; 99,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>95,88; 98,45</t>
+          <t>97,55; 99,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>98,1; 99,56</t>
+          <t>95,94; 98,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>96,4; 98,66</t>
+          <t>96,71; 98,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,72; 99,63</t>
+          <t>98,04; 99,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,65; 98,27</t>
+          <t>98,1; 99,77</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>96,53; 98,65</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>96,1; 98,32</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>98,81; 99,65</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>98,27; 99,64</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>96,82; 98,37</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>96,65; 98,4</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>99,55%</t>
+          <t>99,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>99,07%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>98,68%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>98,92%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>98,04%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>98,93%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>98,35%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>96,32%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>99,23%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>98,21%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>99,25%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>98,71%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>97,56%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>98,12%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>98,0; 100,0</t>
+          <t>98,5; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>96,99; 99,67</t>
+          <t>97,4; 99,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>97,76; 99,59</t>
+          <t>96,79; 99,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>92,62; 98,38</t>
+          <t>95,18; 99,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>98,5; 99,65</t>
+          <t>97,7; 99,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,45; 98,57</t>
+          <t>95,8; 99,52</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>92,53; 98,28</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>95,45; 99,58</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>98,57; 99,69</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>97,34; 99,49</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>95,57; 98,68</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>96,45; 99,12</t>
         </is>
       </c>
     </row>
@@ -766,25 +942,55 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>99,54%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>99,77%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>99,78%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -799,7 +1005,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>98,66; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +1015,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>97,59; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,10 +1025,40 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>98,84; 100,0</t>
+          <t>97,24; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>98,71; 100,0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>99,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>99,24%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>97,73%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>99,03%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>98,08%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>99,04%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>98,97%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>97,52%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>99,33%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>97,56%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>99,34%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>99,11%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>97,62%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>97,82%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>99,14; 99,89</t>
+          <t>99,24; 99,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>96,5; 98,59</t>
+          <t>98,43; 99,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>98,44; 99,42</t>
+          <t>96,46; 98,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,26; 98,26</t>
+          <t>96,86; 98,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,97; 99,6</t>
+          <t>98,43; 99,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,8; 98,21</t>
+          <t>97,81; 99,55</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>96,35; 98,37</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>96,42; 98,4</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>99,03; 99,6</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>98,55; 99,52</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>96,87; 98,26</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>97,05; 98,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse disponer de teléfono (tasa de respuesta: 99,51%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>673.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>510.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>660.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>649.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>841.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>633.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>833.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>862.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1514.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1143.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1493.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1511.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1633657</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1608938</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>221360</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>221270</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1772759</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1781813</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>230738</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>229548</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3406416</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3390751</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>452097</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>450817</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1621357; 1638128</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1582219; 1618196</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>217967; 223796</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>218166; 223269</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1755519; 1782299</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1761793; 1791723</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>227638; 232653</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>226540; 231769</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3389652; 3418269</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3358695; 3405447</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>448289; 455499</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>445868; 453933</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>509.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>416.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>622.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>500.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1131.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>916.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>451.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>461.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1356020</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1364161</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>70528</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>70467</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1348400</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1349271</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>62128</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>64968</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2704419</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2713432</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>132656</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>135435</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1341533; 1361944</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1341239; 1373288</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>69176; 71225</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>68415; 71418</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1331583; 1357550</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1314307; 1365326</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>59685; 63392</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>63139; 65875</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2685891; 2716490</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2675779; 2734828</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>129949; 134173</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>133134; 136812</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>420226</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>419649</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>407421</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>406133</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>827647</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>825782</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>398007; 409285</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>818772; 829511</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1324.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1026.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>887.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>890.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1632.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1254.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1057.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1082.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2956.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2280.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1944.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1972.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3409903</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3392748</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>291888</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>291736</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3528579</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3537216</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>292866</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>294516</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6938482</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6929964</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>584753</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>586253</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3395908; 3417561</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3365049; 3408977</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>288097; 294331</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>288128; 294194</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3507133; 3543179</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3495632; 3557956</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>289352; 295418</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>291055; 297032</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>6916994; 6956867</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>6890982; 6959042</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>580237; 588559</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>581631; 589492</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
